--- a/bases/PEFs/CuotasISSSTE.xlsx
+++ b/bases/PEFs/CuotasISSSTE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/CIEP Dropbox/Ricardo Cantú/SimuladorCIEP/5.3/SimuladorCIEP/bases/PEFs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\PEFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF507FD-4488-C446-BBC7-3B34CA68ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9854D-61D0-4CAB-8F63-3AB03243C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10860" yWindow="4425" windowWidth="16230" windowHeight="12930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -62,7 +62,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -88,15 +98,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -113,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,23 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -459,7 +473,7 @@
         <v>18505400000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -473,7 +487,7 @@
         <v>19470300000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -487,7 +501,7 @@
         <v>21401800000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -501,7 +515,7 @@
         <v>22593900000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -515,7 +529,7 @@
         <v>37607490500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -532,7 +546,7 @@
         <v>44835570079</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1</v>
       </c>
@@ -549,7 +563,7 @@
         <v>41679970244</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -566,7 +580,7 @@
         <v>36157258396</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -583,7 +597,7 @@
         <v>68642820898</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1</v>
       </c>
@@ -600,7 +614,7 @@
         <v>93110689450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -617,7 +631,7 @@
         <v>134940744602</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -634,7 +648,7 @@
         <v>110481309485.17799</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1</v>
       </c>
@@ -655,7 +669,7 @@
         <v>135050956683.60699</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1</v>
       </c>
@@ -665,18 +679,17 @@
       <c r="C15">
         <v>2021</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>118491570630</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>118491570630</v>
       </c>
       <c r="F15" s="1">
-        <f>112613056683.607+22437900000</f>
-        <v>135050956683.60699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126818580145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -686,17 +699,15 @@
       <c r="C16">
         <v>2022</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>123025346302</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>123025346302</v>
       </c>
-      <c r="F16" s="1">
-        <v>135050956684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -712,9 +723,10 @@
       <c r="E17" s="1">
         <v>123025346302</v>
       </c>
-      <c r="F17" s="1">
-        <v>135050956684</v>
-      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/bases/PEFs/CuotasISSSTE.xlsx
+++ b/bases/PEFs/CuotasISSSTE.xlsx
@@ -120,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,10 +130,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,16 +157,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
   </cols>
   <sheetData>
@@ -414,10 +410,10 @@
       <c r="C15" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="1" t="n">
         <v>118491570630</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="1" t="n">
         <v>118491570630</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -434,13 +430,13 @@
       <c r="C16" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="1" t="n">
         <v>123025346302</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="1" t="n">
         <v>123025346302</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -455,11 +451,13 @@
       <c r="D17" s="1" t="n">
         <v>130002646778</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="n">
+        <v>130002646778</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
